--- a/biology/Zoologie/Arachnactidae/Arachnactidae.xlsx
+++ b/biology/Zoologie/Arachnactidae/Arachnactidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillaria
-Les Arachnactidae sont une famille de cnidaires anthozoaires du groupe des Ceriantharia (les « cérianthes »), la seule de l'ordre des Penicilaria[2].
+Les Arachnactidae sont une famille de cnidaires anthozoaires du groupe des Ceriantharia (les « cérianthes »), la seule de l'ordre des Penicilaria.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 juin 2021) :
 genre Anactinia Annandale, 1909
 genre Arachnactis Sars, 1846
 genre Arachnanthus Carlgren, 1912
@@ -554,7 +568,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ordre des Penicillaria :
 (en) J. C. Den Hartog, « Descriptions of two new Ceriantharia from the Caribbean region, Pachycerianthus curacaoensis n. sp. and Arachnanthus nocturnus n. sp., with a discussion of the cnidom and of the classification of the Ceriantharia », Zoologische Mededelingen, NBC, vol. 51, no 14,‎ 1977, p. 211-242 (ISSN 0024-0672 et 1876-2174, OCLC 212304577, lire en ligne)
